--- a/Question_Set2/Role-specific skills/Legal Assistant (US).xlsx
+++ b/Question_Set2/Role-specific skills/Legal Assistant (US).xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a legal assistant answering phones for a law firm. A person identifying themselves as Mr. Smith calls and wants to hire the firm to handle his divorce. The firm already represents a client named Mrs. Smith in her divorce.  What should you do next?', 'ques_type': 2, 'options': ['Run a conflict check to determine if Mr. Smith is from the same Smith family.', 'Decline and inform Mr. Smith that the firm has a conflict of interest, as the firm is already representing Mrs. Smith.', 'Ask Mr. Smith if he will agree to the firm representing both parties in the divorce.', 'Inquire about the amount of money Mr. Smith is willing to pay for an attorney and compare it to Mrs. Smith’s retainer.'], 'score': 'Run a conflict check to determine if Mr. Smith is from the same Smith family.'}, {'title': 'You are a legal assistant at a family law firm. A client is billed 10 hours for an adoption. The client does not agree that an adoption should take so many billable hours, as the court hearing only lasted 30 minutes.  How should you respond to the client?', 'ques_type': 2, 'options': ['Inform the client that billable hours include more than time spent in court.', 'Explain to the client that every 30 minutes in court equals 10 hours of preparation.', 'Tell the client that you will ask the attorney in charge if 10 billable hours is correct.', 'Remove a small amount from the client’s bill.'], 'score': 'Inform the client that billable hours include more than time spent in court.'}, {'title': 'You are a legal assistant at a busy probate firm representing a client who wants to drop off some important documents related to their case.  Without further information, what reasoning should you use to decide whether to add the client to the attorney’s calendar for a meeting?', 'ques_type': 2, 'options': ['Don’t add them to the calendar unless the client also requests a meeting.', 'Don’t add them to the calendar because you haven’t reviewed the documents and don’t know if they are important.', 'Add them to the calendar because attorneys should meet their clients every time they come in.', 'Add them to the calendar because documents need to be reviewed before the firm can accept them.'], 'score': 'Don’t add them to the calendar unless the client also requests a meeting.'}, {'title': 'You are a paralegal at a law firm that represents celebrities. Your firm was just hired by a well-known actor. You are excited for your firm and post on social media about how the firm is representing them. True or false: You revealed confidential client information by posting the client’s name.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a legal assistant answering phones for a law firm. A person identifying themselves as Mr. Smith calls and wants to hire the firm to handle his divorce. The firm already represents a client named Mrs. Smith in her divorce.  What should you do next?",
+        "ques_type": 2,
+        "options": [
+            "Run a conflict check to determine if Mr. Smith is from the same Smith family.",
+            "Decline and inform Mr. Smith that the firm has a conflict of interest, as the firm is already representing Mrs. Smith.",
+            "Ask Mr. Smith if he will agree to the firm representing both parties in the divorce.",
+            "Inquire about the amount of money Mr. Smith is willing to pay for an attorney and compare it to Mrs. Smith\u2019s retainer."
+        ],
+        "score": "Run a conflict check to determine if Mr. Smith is from the same Smith family."
+    },
+    {
+        "title": "You are a legal assistant at a family law firm. A client is billed 10 hours for an adoption. The client does not agree that an adoption should take so many billable hours, as the court hearing only lasted 30 minutes.  How should you respond to the client?",
+        "ques_type": 2,
+        "options": [
+            "Inform the client that billable hours include more than time spent in court.",
+            "Explain to the client that every 30 minutes in court equals 10 hours of preparation.",
+            "Tell the client that you will ask the attorney in charge if 10 billable hours is correct.",
+            "Remove a small amount from the client\u2019s bill."
+        ],
+        "score": "Inform the client that billable hours include more than time spent in court."
+    },
+    {
+        "title": "You are a legal assistant at a busy probate firm representing a client who wants to drop off some important documents related to their case.  Without further information, what reasoning should you use to decide whether to add the client to the attorney\u2019s calendar for a meeting?",
+        "ques_type": 2,
+        "options": [
+            "Don\u2019t add them to the calendar unless the client also requests a meeting.",
+            "Don\u2019t add them to the calendar because you haven\u2019t reviewed the documents and don\u2019t know if they are important.",
+            "Add them to the calendar because attorneys should meet their clients every time they come in.",
+            "Add them to the calendar because documents need to be reviewed before the firm can accept them."
+        ],
+        "score": "Don\u2019t add them to the calendar unless the client also requests a meeting."
+    },
+    {
+        "title": "You are a paralegal at a law firm that represents celebrities. Your firm was just hired by a well-known actor. You are excited for your firm and post on social media about how the firm is representing them. True or false: You revealed confidential client information by posting the client\u2019s name.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
